--- a/data/TC015.xlsx
+++ b/data/TC015.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="165" windowWidth="14805" windowHeight="7950"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
   <si>
     <t>username</t>
   </si>
@@ -51,9 +51,6 @@
     <t>Warm</t>
   </si>
   <si>
-    <t>saluation</t>
-  </si>
-  <si>
     <t>title</t>
   </si>
   <si>
@@ -66,22 +63,19 @@
     <t>Manager</t>
   </si>
   <si>
-    <t>Mr.</t>
-  </si>
-  <si>
     <t>Open - Not Contacted</t>
   </si>
   <si>
-    <t>lastname, Alpha</t>
-  </si>
-  <si>
     <t>leadname</t>
   </si>
   <si>
     <t>verifyLeadName</t>
   </si>
   <si>
-    <t>Alpha lastname</t>
+    <t>Rajenderan, Antony</t>
+  </si>
+  <si>
+    <t>Antony Rajenderan</t>
   </si>
 </sst>
 </file>
@@ -427,10 +421,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K2"/>
+  <dimension ref="A1:J2"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="J7" sqref="J7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J2" sqref="J2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -440,13 +434,12 @@
     <col min="3" max="3" width="18.5703125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="21.7109375" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="14.5703125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.5703125" customWidth="1"/>
-    <col min="7" max="7" width="15.42578125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="19.28515625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="20.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="18.85546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="19.28515625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="20.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -463,13 +456,13 @@
         <v>3</v>
       </c>
       <c r="F1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G1" t="s">
+        <v>17</v>
+      </c>
+      <c r="H1" t="s">
         <v>11</v>
-      </c>
-      <c r="G1" t="s">
-        <v>19</v>
-      </c>
-      <c r="H1" t="s">
-        <v>20</v>
       </c>
       <c r="I1" t="s">
         <v>12</v>
@@ -477,11 +470,8 @@
       <c r="J1" t="s">
         <v>13</v>
       </c>
-      <c r="K1" t="s">
-        <v>14</v>
-      </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>5</v>
       </c>
@@ -498,21 +488,18 @@
         <v>9</v>
       </c>
       <c r="F2" t="s">
-        <v>16</v>
-      </c>
-      <c r="G2" t="s">
         <v>18</v>
       </c>
-      <c r="H2" s="1" t="s">
-        <v>21</v>
+      <c r="G2" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="H2" t="s">
+        <v>14</v>
       </c>
       <c r="I2" t="s">
         <v>15</v>
       </c>
       <c r="J2" t="s">
-        <v>17</v>
-      </c>
-      <c r="K2" t="s">
         <v>10</v>
       </c>
     </row>
